--- a/SeleFramework/ExcelFile/testdata.xlsx
+++ b/SeleFramework/ExcelFile/testdata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E528D0E6-8D13-4DD9-A881-E8BD2C2796CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED1E393-E07F-4FF3-907F-CB026618C960}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="17475" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1695" windowWidth="17475" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UAT" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Prod" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -38,6 +37,12 @@
   </si>
   <si>
     <t>password1</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>qtp</t>
   </si>
 </sst>
 </file>
@@ -355,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,11 +379,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
